--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="個別 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="個別" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="29">
   <si>
     <t>【概要】</t>
     <rPh sb="1" eb="3">
@@ -198,12 +200,82 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Ethernet通信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Can通信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■未受信</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■未送信</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API : 未受信診断情報</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API : 未送信診断情報</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Clock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API : Clock診断情報</t>
+    <rPh sb="11" eb="13">
+      <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■送信</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API : 送信診断情報</t>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +314,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +357,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -419,13 +520,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +672,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -542,6 +704,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFFFF"/>
@@ -551,6 +715,1878 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="左中かっこ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2428875"/>
+          <a:ext cx="342900" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7858125" y="2857500"/>
+          <a:ext cx="1628775" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="3667125"/>
+          <a:ext cx="1628775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="2838450"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="2990850"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="3590925"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="2924175"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左中かっこ 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="4981575"/>
+          <a:ext cx="342900" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="5381625"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="5553075"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="5429250"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左中かっこ 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="9267825"/>
+          <a:ext cx="342900" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="9667875"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="9839325"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="9715500"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="2505075"/>
+          <a:ext cx="1200150" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619627" y="2676525"/>
+          <a:ext cx="1181098" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4619625" y="3810000"/>
+          <a:ext cx="1181100" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7858125" y="2933700"/>
+          <a:ext cx="1609725" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="3752850"/>
+          <a:ext cx="1628775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11534775" y="2781300"/>
+          <a:ext cx="1362075" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="左中かっこ 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2085975"/>
+          <a:ext cx="342900" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9529</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8134351" y="2552700"/>
+          <a:ext cx="666753" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="左中かっこ 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2085975"/>
+          <a:ext cx="342900" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7858125" y="2857500"/>
+          <a:ext cx="1628775" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="3667125"/>
+          <a:ext cx="1628775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="2838450"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="2990850"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="3590925"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="2924175"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左中かっこ 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="4638675"/>
+          <a:ext cx="342900" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="5038725"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="5210175"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="5086350"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="左中かっこ 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="4638675"/>
+          <a:ext cx="342900" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="5038725"/>
+          <a:ext cx="1200150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4619626" y="5210175"/>
+          <a:ext cx="1190625" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7867650" y="5086350"/>
+          <a:ext cx="914400" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1226,10 +3262,1328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Y30"/>
+  <dimension ref="B2:Y96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="11" width="4.375" customWidth="1"/>
+    <col min="12" max="12" width="2.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="E14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="6"/>
+      <c r="S14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="E16" s="7"/>
+      <c r="F16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="3:25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="W17" s="8"/>
+      <c r="Y17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="3:25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="3:25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="8"/>
+      <c r="S20" s="7"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="3:25">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="3:25">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="3:25">
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="3:25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="8"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="3:25">
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="3:25">
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="8"/>
+      <c r="S26" s="7"/>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="8"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="8"/>
+      <c r="S27" s="7"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="E28" s="7"/>
+      <c r="F28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="S28" s="7"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" spans="3:25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="8"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="S29" s="7"/>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" spans="3:25">
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="8"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="3:25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="11"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="36" spans="3:25">
+      <c r="C36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+    </row>
+    <row r="37" spans="3:25">
+      <c r="D37" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+    </row>
+    <row r="38" spans="3:25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="3:25">
+      <c r="E39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="6"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="6"/>
+      <c r="S39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="3:25">
+      <c r="E40" s="7"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="8"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="8"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="8"/>
+    </row>
+    <row r="41" spans="3:25">
+      <c r="E41" s="7"/>
+      <c r="F41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="8"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="8"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U41" s="14"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="8"/>
+    </row>
+    <row r="42" spans="3:25">
+      <c r="E42" s="7"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="8"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="8"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="8"/>
+      <c r="Y42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25">
+      <c r="E43" s="7"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="8"/>
+      <c r="S43" s="7"/>
+      <c r="W43" s="8"/>
+    </row>
+    <row r="44" spans="3:25">
+      <c r="E44" s="7"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="7"/>
+      <c r="P44" s="8"/>
+      <c r="S44" s="7"/>
+      <c r="W44" s="8"/>
+    </row>
+    <row r="45" spans="3:25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="8"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="8"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U45" s="14"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="8"/>
+    </row>
+    <row r="46" spans="3:25">
+      <c r="E46" s="7"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="8"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="8"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="8"/>
+    </row>
+    <row r="47" spans="3:25">
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="8"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="8"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="8"/>
+    </row>
+    <row r="48" spans="3:25">
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="11"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="11"/>
+    </row>
+    <row r="50" spans="4:25">
+      <c r="D50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+    </row>
+    <row r="51" spans="4:25">
+      <c r="D51" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+    </row>
+    <row r="52" spans="4:25">
+      <c r="D52" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+    </row>
+    <row r="54" spans="4:25">
+      <c r="E54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="6"/>
+      <c r="L54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="6"/>
+      <c r="S54" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="4:25">
+      <c r="E55" s="7"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="8"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="8"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="8"/>
+    </row>
+    <row r="56" spans="4:25">
+      <c r="E56" s="7"/>
+      <c r="F56" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="8"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="8"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U56" s="14"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="8"/>
+    </row>
+    <row r="57" spans="4:25">
+      <c r="E57" s="7"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="8"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="40"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="8"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58" spans="4:25">
+      <c r="E58" s="7"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="8"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="8"/>
+      <c r="S58" s="7"/>
+      <c r="W58" s="8"/>
+    </row>
+    <row r="59" spans="4:25">
+      <c r="E59" s="7"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="8"/>
+      <c r="L59" s="7"/>
+      <c r="P59" s="8"/>
+      <c r="S59" s="7"/>
+      <c r="W59" s="8"/>
+    </row>
+    <row r="60" spans="4:25">
+      <c r="E60" s="7"/>
+      <c r="F60" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="8"/>
+      <c r="L60" s="7"/>
+      <c r="P60" s="8"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U60" s="14"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="8"/>
+    </row>
+    <row r="61" spans="4:25">
+      <c r="E61" s="7"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="8"/>
+      <c r="L61" s="7"/>
+      <c r="P61" s="8"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="8"/>
+    </row>
+    <row r="62" spans="4:25">
+      <c r="E62" s="7"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="8"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="8"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="8"/>
+    </row>
+    <row r="63" spans="4:25">
+      <c r="E63" s="7"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="11"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="11"/>
+    </row>
+    <row r="64" spans="4:25">
+      <c r="E64" s="7"/>
+      <c r="F64" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="3:25">
+      <c r="E65" s="7"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="3:25">
+      <c r="E66" s="7"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="3:25">
+      <c r="E67" s="7"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="3:25">
+      <c r="E68" s="7"/>
+      <c r="F68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="3:25">
+      <c r="E69" s="7"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="3:25">
+      <c r="E70" s="7"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="3:25">
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="74" spans="3:25">
+      <c r="C74" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+    </row>
+    <row r="75" spans="3:25">
+      <c r="D75" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+    </row>
+    <row r="76" spans="3:25">
+      <c r="D76" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+    </row>
+    <row r="77" spans="3:25">
+      <c r="D77" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+    </row>
+    <row r="79" spans="3:25">
+      <c r="E79" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="6"/>
+      <c r="L79" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="6"/>
+      <c r="S79" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="6"/>
+    </row>
+    <row r="80" spans="3:25">
+      <c r="E80" s="7"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="8"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="8"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="8"/>
+    </row>
+    <row r="81" spans="5:23">
+      <c r="E81" s="7"/>
+      <c r="F81" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="8"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="30"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="8"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U81" s="14"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="8"/>
+    </row>
+    <row r="82" spans="5:23">
+      <c r="E82" s="7"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="8"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="40"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="8"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="8"/>
+    </row>
+    <row r="83" spans="5:23">
+      <c r="E83" s="7"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="8"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="33"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="8"/>
+      <c r="S83" s="7"/>
+      <c r="W83" s="8"/>
+    </row>
+    <row r="84" spans="5:23">
+      <c r="E84" s="7"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="8"/>
+      <c r="L84" s="7"/>
+      <c r="P84" s="8"/>
+      <c r="S84" s="7"/>
+      <c r="W84" s="8"/>
+    </row>
+    <row r="85" spans="5:23">
+      <c r="E85" s="7"/>
+      <c r="F85" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="27"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="8"/>
+      <c r="L85" s="7"/>
+      <c r="P85" s="8"/>
+      <c r="S85" s="7"/>
+      <c r="W85" s="8"/>
+    </row>
+    <row r="86" spans="5:23">
+      <c r="E86" s="7"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="8"/>
+      <c r="L86" s="7"/>
+      <c r="P86" s="8"/>
+      <c r="S86" s="7"/>
+      <c r="W86" s="8"/>
+    </row>
+    <row r="87" spans="5:23">
+      <c r="E87" s="7"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="8"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="8"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="8"/>
+    </row>
+    <row r="88" spans="5:23">
+      <c r="E88" s="7"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="8"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="11"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="11"/>
+    </row>
+    <row r="89" spans="5:23">
+      <c r="E89" s="7"/>
+      <c r="F89" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="5:23">
+      <c r="E90" s="7"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="5:23">
+      <c r="E91" s="7"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="5:23">
+      <c r="E92" s="7"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="5:23">
+      <c r="E93" s="7"/>
+      <c r="F93" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="5:23">
+      <c r="E94" s="7"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="5:23">
+      <c r="E95" s="7"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="5:23">
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Y72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1267,12 +4621,1004 @@
     </row>
     <row r="7" spans="2:25">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:25">
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="C12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="D13" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="E15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="6"/>
+      <c r="S15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="4:25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="4:25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="8"/>
+      <c r="Y18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="8"/>
+      <c r="S19" s="7"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="4:25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="S20" s="7"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="4:25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="4:25">
+      <c r="E22" s="7"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="4:25">
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="4:25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="26" spans="4:25">
+      <c r="D26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+    </row>
+    <row r="27" spans="4:25">
+      <c r="D27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+    </row>
+    <row r="28" spans="4:25">
+      <c r="D28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+    </row>
+    <row r="30" spans="4:25">
+      <c r="E30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="6"/>
+      <c r="L30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="6"/>
+      <c r="S30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="4:25">
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="8"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="8"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="4:25">
+      <c r="E32" s="7"/>
+      <c r="F32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="8"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U32" s="14"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" spans="5:23">
+      <c r="E33" s="7"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="8"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="8"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34" spans="5:23">
+      <c r="E34" s="7"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="8"/>
+      <c r="S34" s="7"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" spans="5:23">
+      <c r="E35" s="7"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="8"/>
+      <c r="L35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="S35" s="7"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="5:23">
+      <c r="E36" s="7"/>
+      <c r="F36" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36" s="14"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37" spans="5:23">
+      <c r="E37" s="7"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="P37" s="8"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38" spans="5:23">
+      <c r="E38" s="7"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="8"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="5:23">
+      <c r="E39" s="7"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="8"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="11"/>
+    </row>
+    <row r="40" spans="5:23">
+      <c r="E40" s="7"/>
+      <c r="F40" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="5:23">
+      <c r="E41" s="7"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="5:23">
+      <c r="E42" s="7"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="5:23">
+      <c r="E43" s="7"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="5:23">
+      <c r="E44" s="7"/>
+      <c r="F44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="5:23">
+      <c r="E45" s="7"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="5:23">
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="5:23">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="50" spans="3:25">
+      <c r="C50" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+    </row>
+    <row r="51" spans="3:25">
+      <c r="D51" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+    </row>
+    <row r="52" spans="3:25">
+      <c r="D52" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+    </row>
+    <row r="53" spans="3:25">
+      <c r="D53" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+    </row>
+    <row r="55" spans="3:25">
+      <c r="E55" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="6"/>
+      <c r="L55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="6"/>
+      <c r="S55" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" spans="3:25">
+      <c r="E56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="8"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="8"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="8"/>
+    </row>
+    <row r="57" spans="3:25">
+      <c r="E57" s="7"/>
+      <c r="F57" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="8"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="30"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="8"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U57" s="14"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58" spans="3:25">
+      <c r="E58" s="7"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="8"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="40"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="8"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="8"/>
+    </row>
+    <row r="59" spans="3:25">
+      <c r="E59" s="7"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="8"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="8"/>
+      <c r="S59" s="7"/>
+      <c r="W59" s="8"/>
+    </row>
+    <row r="60" spans="3:25">
+      <c r="E60" s="7"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="8"/>
+      <c r="L60" s="7"/>
+      <c r="P60" s="8"/>
+      <c r="S60" s="7"/>
+      <c r="W60" s="8"/>
+    </row>
+    <row r="61" spans="3:25">
+      <c r="E61" s="7"/>
+      <c r="F61" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="8"/>
+      <c r="L61" s="7"/>
+      <c r="P61" s="8"/>
+      <c r="S61" s="7"/>
+      <c r="W61" s="8"/>
+    </row>
+    <row r="62" spans="3:25">
+      <c r="E62" s="7"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="8"/>
+      <c r="L62" s="7"/>
+      <c r="P62" s="8"/>
+      <c r="S62" s="7"/>
+      <c r="W62" s="8"/>
+    </row>
+    <row r="63" spans="3:25">
+      <c r="E63" s="7"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="8"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="8"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="8"/>
+    </row>
+    <row r="64" spans="3:25">
+      <c r="E64" s="7"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="8"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="11"/>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" s="7"/>
+      <c r="F65" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" s="7"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" s="7"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" s="7"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" s="7"/>
+      <c r="F69" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" s="7"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="5:9">
+      <c r="E71" s="7"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="5:9">
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Y30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="11" width="4.375" customWidth="1"/>
+    <col min="12" max="12" width="2.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="D7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:25">
@@ -1614,7 +5960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1627,7 +5973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="68">
   <si>
     <t>【概要】</t>
     <rPh sb="1" eb="3">
@@ -270,12 +270,635 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>APL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜故障診断情報の取得する＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>各通信情報の各</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID毎に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>故障診断情報をAPIを利用して取得する</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[通信情報一覧]</t>
+    <rPh sb="1" eb="3">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 - Can未送信（各ID）</t>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 - Can未受信（各ID）</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 - CanSumCheck（各ID）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　- CanClock（各ID）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 - イーサ未受信（各ID）</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 - イーサClock（各ID）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜故障診断を判定する＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIから取得した故障診断情報について、結果を判定する</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   1. 各通信情報の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各ID毎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にAPIから取得した結果を判定する</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   1-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>異常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各ID毎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>異常カウンタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を加算する</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   1-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>異常カウンタは初期化する</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ms周期で監視</t>
+  </si>
+  <si>
+    <t>＜故障診断情報(パケットデータ)を生成する＞</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定（正常/異常）に応じて故障診断情報（パケットデータ）を生成する</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>異常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（異常カウンタ　&gt; 判定値）の場合</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   判定に応じた通信情報にてパケットデータ(異常)を生成する</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    [通信情報一覧]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   - Can未送信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   - Can未受信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   - CanSumCheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　  - CanClock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   - イーサ未受信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　   - イーサClock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（異常カウンタ &lt;= 判定値）の場合</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    　パケットデータ(正常)を生成する</t>
+    <rPh sb="13" eb="15">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜故障診断情報(パケットデータ)を送信する＞</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールを指定してパケットデータ(正常/異常)をAPIに渡す</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API : 故障診断情報の送信</t>
+    <rPh sb="6" eb="8">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  [モジュール一覧]</t>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ECU1(マイコン*2,マイコン*4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ECU2(マイコン*2,マイコン*4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>異常の場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、モジュール毎にパケットデータ(異常)をAPIに渡す</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　※パケットデータ(異常)複数の場合、IDが大きいデータが優先される？</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正常の場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、モジュール毎にパケットデータ(正常)をAPIに渡す</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +954,63 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -370,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -557,13 +1237,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +1394,72 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1831,6 +2595,204 @@
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="左中かっこ 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="695325"/>
+          <a:ext cx="342900" cy="7667625"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1295400"/>
+          <a:ext cx="2038350" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8601075" y="1476375"/>
+          <a:ext cx="2038350" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="6981825"/>
+          <a:ext cx="2038350" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -3262,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Y96"/>
+  <dimension ref="B2:Y148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="U143" sqref="U143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4569,6 +5531,942 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="11"/>
+    </row>
+    <row r="104" spans="4:20">
+      <c r="D104" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="4:20">
+      <c r="D105" s="7"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="44"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="8"/>
+    </row>
+    <row r="106" spans="4:20">
+      <c r="D106" s="7"/>
+      <c r="E106" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="8"/>
+    </row>
+    <row r="107" spans="4:20">
+      <c r="D107" s="7"/>
+      <c r="E107" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="R107" s="30"/>
+      <c r="S107" s="31"/>
+      <c r="T107" s="8"/>
+    </row>
+    <row r="108" spans="4:20">
+      <c r="D108" s="7"/>
+      <c r="E108" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="8"/>
+    </row>
+    <row r="109" spans="4:20">
+      <c r="D109" s="7"/>
+      <c r="E109" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="8"/>
+    </row>
+    <row r="110" spans="4:20">
+      <c r="D110" s="7"/>
+      <c r="E110" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="8"/>
+    </row>
+    <row r="111" spans="4:20">
+      <c r="D111" s="7"/>
+      <c r="E111" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="8"/>
+    </row>
+    <row r="112" spans="4:20">
+      <c r="D112" s="7"/>
+      <c r="E112" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="8"/>
+    </row>
+    <row r="113" spans="2:20">
+      <c r="D113" s="7"/>
+      <c r="E113" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="50"/>
+      <c r="L113" s="50"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="8"/>
+    </row>
+    <row r="114" spans="2:20">
+      <c r="D114" s="7"/>
+      <c r="E114" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="8"/>
+    </row>
+    <row r="115" spans="2:20">
+      <c r="D115" s="7"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
+      <c r="H115" s="53"/>
+      <c r="I115" s="53"/>
+      <c r="J115" s="53"/>
+      <c r="K115" s="53"/>
+      <c r="L115" s="53"/>
+      <c r="M115" s="54"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="8"/>
+    </row>
+    <row r="116" spans="2:20">
+      <c r="D116" s="7"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="8"/>
+    </row>
+    <row r="117" spans="2:20">
+      <c r="D117" s="7"/>
+      <c r="E117" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="8"/>
+    </row>
+    <row r="118" spans="2:20">
+      <c r="D118" s="7"/>
+      <c r="E118" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="47"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="8"/>
+    </row>
+    <row r="119" spans="2:20">
+      <c r="D119" s="7"/>
+      <c r="E119" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="56"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="8"/>
+    </row>
+    <row r="120" spans="2:20">
+      <c r="D120" s="7"/>
+      <c r="E120" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="56"/>
+      <c r="L120" s="56"/>
+      <c r="M120" s="57"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="8"/>
+    </row>
+    <row r="121" spans="2:20">
+      <c r="D121" s="7"/>
+      <c r="E121" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="57"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="8"/>
+    </row>
+    <row r="122" spans="2:20">
+      <c r="D122" s="7"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="53"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="8"/>
+    </row>
+    <row r="123" spans="2:20">
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="8"/>
+    </row>
+    <row r="124" spans="2:20">
+      <c r="D124" s="7"/>
+      <c r="E124" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="8"/>
+    </row>
+    <row r="125" spans="2:20">
+      <c r="D125" s="7"/>
+      <c r="E125" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="47"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="8"/>
+    </row>
+    <row r="126" spans="2:20">
+      <c r="D126" s="7"/>
+      <c r="E126" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="50"/>
+      <c r="K126" s="50"/>
+      <c r="L126" s="50"/>
+      <c r="M126" s="51"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="8"/>
+    </row>
+    <row r="127" spans="2:20">
+      <c r="D127" s="7"/>
+      <c r="E127" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="50"/>
+      <c r="L127" s="50"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="8"/>
+    </row>
+    <row r="128" spans="2:20">
+      <c r="D128" s="7"/>
+      <c r="E128" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="50"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="50"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="8"/>
+    </row>
+    <row r="129" spans="4:20">
+      <c r="D129" s="7"/>
+      <c r="E129" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="50"/>
+      <c r="L129" s="50"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="8"/>
+    </row>
+    <row r="130" spans="4:20">
+      <c r="D130" s="7"/>
+      <c r="E130" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="50"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="50"/>
+      <c r="J130" s="50"/>
+      <c r="K130" s="50"/>
+      <c r="L130" s="50"/>
+      <c r="M130" s="51"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="8"/>
+    </row>
+    <row r="131" spans="4:20">
+      <c r="D131" s="7"/>
+      <c r="E131" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="50"/>
+      <c r="K131" s="50"/>
+      <c r="L131" s="50"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="8"/>
+    </row>
+    <row r="132" spans="4:20">
+      <c r="D132" s="7"/>
+      <c r="E132" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
+      <c r="K132" s="50"/>
+      <c r="L132" s="50"/>
+      <c r="M132" s="51"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="8"/>
+    </row>
+    <row r="133" spans="4:20">
+      <c r="D133" s="7"/>
+      <c r="E133" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50"/>
+      <c r="K133" s="50"/>
+      <c r="L133" s="50"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="8"/>
+    </row>
+    <row r="134" spans="4:20">
+      <c r="D134" s="7"/>
+      <c r="E134" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="50"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="51"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="8"/>
+    </row>
+    <row r="135" spans="4:20">
+      <c r="D135" s="7"/>
+      <c r="E135" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="56"/>
+      <c r="J135" s="56"/>
+      <c r="K135" s="56"/>
+      <c r="L135" s="56"/>
+      <c r="M135" s="51"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="8"/>
+    </row>
+    <row r="136" spans="4:20">
+      <c r="D136" s="7"/>
+      <c r="E136" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="50"/>
+      <c r="K136" s="50"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="8"/>
+    </row>
+    <row r="137" spans="4:20">
+      <c r="D137" s="7"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="54"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="8"/>
+    </row>
+    <row r="138" spans="4:20">
+      <c r="D138" s="7"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="8"/>
+    </row>
+    <row r="139" spans="4:20">
+      <c r="D139" s="7"/>
+      <c r="E139" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="8"/>
+    </row>
+    <row r="140" spans="4:20">
+      <c r="D140" s="7"/>
+      <c r="E140" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="46"/>
+      <c r="K140" s="46"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="47"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="R140" s="30"/>
+      <c r="S140" s="31"/>
+      <c r="T140" s="8"/>
+    </row>
+    <row r="141" spans="4:20">
+      <c r="D141" s="7"/>
+      <c r="E141" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="50"/>
+      <c r="K141" s="50"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="51"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="8"/>
+    </row>
+    <row r="142" spans="4:20">
+      <c r="D142" s="7"/>
+      <c r="E142" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="50"/>
+      <c r="K142" s="50"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="51"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="8"/>
+    </row>
+    <row r="143" spans="4:20">
+      <c r="D143" s="7"/>
+      <c r="E143" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
+      <c r="J143" s="50"/>
+      <c r="K143" s="50"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="51"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="8"/>
+    </row>
+    <row r="144" spans="4:20">
+      <c r="D144" s="7"/>
+      <c r="E144" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="50"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="51"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="8"/>
+    </row>
+    <row r="145" spans="4:20">
+      <c r="D145" s="7"/>
+      <c r="E145" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
+      <c r="I145" s="50"/>
+      <c r="J145" s="50"/>
+      <c r="K145" s="50"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="8"/>
+    </row>
+    <row r="146" spans="4:20">
+      <c r="D146" s="7"/>
+      <c r="E146" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="50"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="51"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="8"/>
+    </row>
+    <row r="147" spans="4:20">
+      <c r="D147" s="7"/>
+      <c r="E147" s="62"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="63"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="63"/>
+      <c r="J147" s="63"/>
+      <c r="K147" s="63"/>
+      <c r="L147" s="63"/>
+      <c r="M147" s="64"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="8"/>
+    </row>
+    <row r="148" spans="4:20">
+      <c r="D148" s="9"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="65"/>
+      <c r="M148" s="65"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="65"/>
+      <c r="R148" s="65"/>
+      <c r="S148" s="65"/>
+      <c r="T148" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
   <si>
     <t>【概要】</t>
     <rPh sb="1" eb="3">
@@ -892,6 +892,174 @@
       <t>セイジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typedef enum {</t>
+  </si>
+  <si>
+    <t>can_send_1 0x10;</t>
+  </si>
+  <si>
+    <t>can_send_2 0x22;</t>
+  </si>
+  <si>
+    <t>can_rev_1 0xA1;</t>
+  </si>
+  <si>
+    <t>can_rev_2 0x2A;</t>
+  </si>
+  <si>
+    <t>can_sum_1 0x1A;</t>
+  </si>
+  <si>
+    <t>can_clock_1 0x2A;</t>
+  </si>
+  <si>
+    <t>} CanIDTable;</t>
+  </si>
+  <si>
+    <t>NormalInfo = 0</t>
+  </si>
+  <si>
+    <t>CanSendInfo,</t>
+  </si>
+  <si>
+    <t>CanRevInfo,</t>
+  </si>
+  <si>
+    <t>CanSumInfo,</t>
+  </si>
+  <si>
+    <t>CanClockInfo</t>
+  </si>
+  <si>
+    <t>} CanIDInfo;</t>
+  </si>
+  <si>
+    <t>static struct{</t>
+  </si>
+  <si>
+    <t>CanIDTable MsgID,</t>
+  </si>
+  <si>
+    <t>CanIDInfo MsgInfo,</t>
+  </si>
+  <si>
+    <t>int MsgCount,</t>
+  </si>
+  <si>
+    <t>bool MsgFlag</t>
+  </si>
+  <si>
+    <t>} MsgIDTable[] = {</t>
+  </si>
+  <si>
+    <t>{can_send_1, CanSendInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>{can_send_2, CanSendInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>{can_rev_1, CanRevInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>{can_rev_2, CanRevInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>{can_sum_1, CanSumInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>{can_clock_1, CanClockInfo, 0, false}</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>int const MsgCount_th = 10;</t>
+  </si>
+  <si>
+    <t>static int CanSendCount = 0;</t>
+  </si>
+  <si>
+    <t>static int CanReveCount = 0;</t>
+  </si>
+  <si>
+    <t>static CanFailFlag = false; // MsgInfoに依存しない、共通なFlag</t>
+  </si>
+  <si>
+    <t>double CanState[] ={};</t>
+  </si>
+  <si>
+    <t>if(!CanFailFlag)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// Do Nathing</t>
+  </si>
+  <si>
+    <t>// 異常判定</t>
+  </si>
+  <si>
+    <t>else {</t>
+  </si>
+  <si>
+    <t>for(int i=0; i &lt; MAX; i++)</t>
+  </si>
+  <si>
+    <t>MsgIDTable[i].MsgFlag = API(MsgIDTable[i].MsgID) // APIの取得</t>
+  </si>
+  <si>
+    <t>if(MsgIDTable[i].MsgFlag) // 異常判定</t>
+  </si>
+  <si>
+    <t>MsgIDTable[i].MsgCount++;</t>
+  </si>
+  <si>
+    <t>if(MsgIDTable[i].MsgCount &gt; MsgCount_th)</t>
+  </si>
+  <si>
+    <t>// CanFailFlag = true; // info毎に分けた方がよさそう…</t>
+  </si>
+  <si>
+    <t>switch(MsgIDTable[i].MsgInfo)</t>
+  </si>
+  <si>
+    <t>case CanSendInfo: // Can未送信診断処理</t>
+  </si>
+  <si>
+    <t>CanState[CanSendInfo] = 0xFFFF; // 書込み処理(異常)</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case CanRevInfo: // Can未受信診断処理</t>
+  </si>
+  <si>
+    <t>CanState[CanSendInfo] = 0xFFFE; // 書込み処理(異常)</t>
+  </si>
+  <si>
+    <t>defalt:</t>
+  </si>
+  <si>
+    <t>// 異常カウントをクリアする</t>
+  </si>
+  <si>
+    <t>if(MsgIDTable[i].MsgCount != 0)</t>
+  </si>
+  <si>
+    <t>MsgIDTable[i].MsgCount = 0;</t>
+  </si>
+  <si>
+    <t>CanState[NormalInfo] = 0xFFFF; // 正常データ書込み処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>// 出力処理</t>
   </si>
 </sst>
 </file>
@@ -4224,10 +4392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Y148"/>
+  <dimension ref="B2:Y244"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="U143" sqref="U143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="O188" sqref="O188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6467,6 +6635,396 @@
       <c r="R148" s="65"/>
       <c r="S148" s="65"/>
       <c r="T148" s="11"/>
+    </row>
+    <row r="154" spans="4:20">
+      <c r="D154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="4:20">
+      <c r="E155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="4:20">
+      <c r="E156" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="4:20">
+      <c r="E157" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="4:20">
+      <c r="E158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="4:20">
+      <c r="E159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="4:20">
+      <c r="E160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="E164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="E165" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="E166" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="E167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="E168" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="E172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="E173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="E174" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="E175" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="E178" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="E179" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="E180" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="E181" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="E182" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6">
+      <c r="D193" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6">
+      <c r="E194" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6">
+      <c r="E195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6">
+      <c r="D196" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6">
+      <c r="D197" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6">
+      <c r="D199" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6">
+      <c r="D200" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6">
+      <c r="E202" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6">
+      <c r="E204" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6">
+      <c r="E205" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6">
+      <c r="F206" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6">
+      <c r="F207" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6">
+      <c r="F208" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209" spans="5:9">
+      <c r="G209" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="5:9">
+      <c r="G211" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="5:9">
+      <c r="G212" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="5:9">
+      <c r="H213" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="5:9">
+      <c r="I214" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="215" spans="5:9">
+      <c r="I215" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" spans="5:9">
+      <c r="H216" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="217" spans="5:9">
+      <c r="I217" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="218" spans="5:9">
+      <c r="I218" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="5:9">
+      <c r="H219" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="5:9">
+      <c r="I220" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" spans="5:9">
+      <c r="G221" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" spans="5:9">
+      <c r="F222" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" spans="5:9">
+      <c r="E223" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" spans="5:9">
+      <c r="E224" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" spans="4:8">
+      <c r="G225" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="4:8">
+      <c r="G226" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="227" spans="4:8">
+      <c r="G227" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="228" spans="4:8">
+      <c r="H228" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="229" spans="4:8">
+      <c r="G229" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="4:8">
+      <c r="E230" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="231" spans="4:8">
+      <c r="D231" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="233" spans="4:8">
+      <c r="D233" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="4:8">
+      <c r="D234" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="4:8">
+      <c r="E235" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="236" spans="4:8">
+      <c r="D236" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="4:8">
+      <c r="D237" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="4:8">
+      <c r="D238" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="4:8">
+      <c r="E239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="4:8">
+      <c r="D240" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="個別 (2)" sheetId="6" r:id="rId1"/>
     <sheet name="個別" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="0210" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="168">
   <si>
     <t>【概要】</t>
     <rPh sb="1" eb="3">
@@ -1061,12 +1061,292 @@
   <si>
     <t>// 出力処理</t>
   </si>
+  <si>
+    <t xml:space="preserve"> f_CanSend_set(MICON_INFO Micon_Info)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static char v_CanSendFail[MICON_INFO_NUM]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数コール</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的変数：マイコンごとの故障情報フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pfunc[Micon_Info](Micon_Info, v_CanSendFail)</t>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_SYS1(MICON_INFO Micon_Info, char* const FailFlag)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static int v_CanSendErrCnt_SYS1[ARRAY_LENGTH(v_NodeTable)]</t>
+  </si>
+  <si>
+    <t>char v_CanSendErr[ARRAY_LENGTH(v_NodeTable)]</t>
+  </si>
+  <si>
+    <t>int v_NodeTable[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的変数：CanIDごとのErrカウンタ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数：CanIDデータを持つ配列</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数：APIから取得した結果を持つ配列</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_Internal(const int v_Table, char* const v_Err, int* const v_ErrCnt, const MICON_INFO v_MiconInfo, char* const FailFlag)</t>
+  </si>
+  <si>
+    <t>int i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char TmporaryFlag = 0;</t>
+  </si>
+  <si>
+    <t>ローカル変数：ループのIndex</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数：ループの故障情報フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_SYS2(MICON_INFO Micon_Info, char* const FailFlag)</t>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_TC(MICON_INFO Micon_Info, char* const FailFlag)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_VMC(MICON_INFO Micon_Info, char* const FailFlag)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static int v_CanSendErrCnt_SYS2[ARRAY_LENGTH(v_NodeTable)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static int v_CanSendErrCnt_VMC[ARRAY_LENGTH(v_NodeTable)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static int v_CanSendErrCnt_TC[ARRAY_LENGTH(v_NodeTable)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plan1. マイコンごとに診断するNodeCHのテーブル毎に関数化する</t>
+    <rPh sb="14" eb="16">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int v_SYS1NodeTable[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int v_SYS2NodeTable[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int v_VMCNodeTable[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int v_TCNodeTable[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int NodeCh[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char Flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static struct v_CanSendInfo[マイコン情報]</t>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数ポインタ[]</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイコンA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイコンB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイコンC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイコンD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通処理関数(故障情報の作成)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的配列：マイコンごとの故障情報フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的配列：IDごとのErrカウンタ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> f_CanSend_set(マイコンタイプ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該マイコンのIDテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_マイコン名(マイコンタイプ, 故障フラグ)</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_Internal(const int v_Table, char* const v_Err, int* const v_ErrCnt, const MICON_INFO v_MiconInfo, char* const FailFlag)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cmd_CanSend_set_Internal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,8 +1459,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,8 +1524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1423,13 +1736,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,6 +2022,120 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4394,7 +4904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Y244"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A210" workbookViewId="0">
       <selection activeCell="O188" sqref="O188"/>
     </sheetView>
   </sheetViews>
@@ -8031,7 +8541,7 @@
   <dimension ref="B2:Y30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD31"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8418,14 +8928,755 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C8:AD64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:30">
+      <c r="C8" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="3:30">
+      <c r="X9" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y9" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z9" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA9" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="3:30">
+      <c r="C10" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="3:30">
+      <c r="C11" s="85"/>
+      <c r="D11" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="88"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="3:30">
+      <c r="C12" s="71"/>
+      <c r="D12" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="74"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="3:30">
+      <c r="C13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="74"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="3:30">
+      <c r="C14" s="71"/>
+      <c r="D14" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="74"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="103"/>
+    </row>
+    <row r="15" spans="3:30">
+      <c r="C15" s="71"/>
+      <c r="D15" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="74"/>
+      <c r="X15" s="96"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="3:30">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="D19" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="70"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="D20" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="D21" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="84"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="D22" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="93"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="D23" s="85"/>
+      <c r="E23" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="88"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="D24" s="71"/>
+      <c r="E24" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="74"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="3:29">
+      <c r="D25" s="71"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="74"/>
+    </row>
+    <row r="26" spans="3:29">
+      <c r="D26" s="71"/>
+      <c r="E26" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="74"/>
+    </row>
+    <row r="27" spans="3:29">
+      <c r="D27" s="71"/>
+      <c r="E27" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="74"/>
+    </row>
+    <row r="28" spans="3:29">
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="74"/>
+    </row>
+    <row r="29" spans="3:29">
+      <c r="D29" s="71"/>
+      <c r="E29" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="74"/>
+    </row>
+    <row r="30" spans="3:29">
+      <c r="D30" s="71"/>
+      <c r="E30" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="74"/>
+    </row>
+    <row r="31" spans="3:29">
+      <c r="D31" s="71"/>
+      <c r="E31" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="74"/>
+    </row>
+    <row r="32" spans="3:29">
+      <c r="D32" s="71"/>
+      <c r="E32" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="74"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="D33" s="71"/>
+      <c r="E33" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="74"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="D34" s="71"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="74"/>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="D35" s="71"/>
+      <c r="E35" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="74"/>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="D36" s="71"/>
+      <c r="E36" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="74"/>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="78"/>
+    </row>
+    <row r="38" spans="3:16">
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="E40" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="70"/>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="E41" s="85"/>
+      <c r="F41" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="88"/>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="E42" s="71"/>
+      <c r="F42" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="74"/>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="E43" s="71"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="74"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="E44" s="71"/>
+      <c r="F44" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="74"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="E45" s="71"/>
+      <c r="F45" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="74"/>
+    </row>
+    <row r="46" spans="3:16">
+      <c r="E46" s="80"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="70"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="D54" s="86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="D55" s="79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="D56" s="79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="D57" s="79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="D58" s="79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="D62" s="72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Can" sheetId="6" r:id="rId3"/>
+    <sheet name="テストケース" sheetId="7" r:id="rId4"/>
+    <sheet name="ソース" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
   <si>
     <t>static uint8_t Cnt_TC[TC_ID_NUM]</t>
     <phoneticPr fontId="1"/>
@@ -532,12 +536,672 @@
     <t>// マイコン情報の初期化関数</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>void f_CANClock_set(const ID_Table* const ID_Info, uint8_t Type_Aurix, uint8_t* const Can_Recv_Result);</t>
+  </si>
+  <si>
+    <t>void f_CANFailInfo_set(MCUType Micon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void f_CANRecv_set(CanRecv_MCUType Micon_Info,  const ID_Table* const Message_Table, bool* const Error_Result[]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAN_RECV_AD_TC</t>
+  </si>
+  <si>
+    <t>ID_Table</t>
+  </si>
+  <si>
+    <t>CANRecv_Fail[Micon][i] == 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!(CANRecv_Fail[Micon][i] == 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l_CANRecvErrCnt[Micon][i] &gt;= m_CanRecvTh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power_On &gt;= Power_On_thr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l_CANRecvErrCnt[Micon][i] &lt; m_CanRecvTh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>power_On &lt; Power_On_thr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.命令分岐(C0)</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.分岐網羅(C1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボックステスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックボックステスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_CANRecv_Mon[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象変数</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_Error_Result[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_CANRecv_Fail[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l_CANRecvErrCnt[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_FailState[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタブの戻り値を入力値とする</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　APIから取得した結果をモニタする変数</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　v_CANRecv_Mon[]の値を判定する変数</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　l_CANRecvErrCnt[]を判定する変数</t>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　f_Error_Result[]を判定する変数</t>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　f_CANRecv_Fail[]を判定する変数</t>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanRecv_MCUType</t>
+  </si>
+  <si>
+    <t>Micon_Info</t>
+  </si>
+  <si>
+    <t>CAN_RECV_AD_VMC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FailErrorを生成するケース</t>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Fail Normalを生成するケース</t>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件：l_CANRecvErrCnt[Micon][i] &lt; m_CanRecvTh</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件：l_CANRecvErrCnt[Micon][i] &gt;= m_CanRecvTh</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAN_RECEV1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message_Table</t>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　すでにFailErrorを生成しているケース</t>
+    <rPh sb="14" eb="16">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_Error_Result[]を入力値とする</t>
+    <rPh sb="17" eb="20">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Can_Rec_State</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoverageCase1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoverageCase2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoverageCase3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoverageCase4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParamCase1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParamCase2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParamCase3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParamCase4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ParamCase5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCUType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　パワーリセットから起動時間閾値に到達していないケース</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VMC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイコンタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * FailSafeFunc.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>#include "FailSafeFunc.h"</t>
+  </si>
+  <si>
+    <t>using namespace std;</t>
+  </si>
+  <si>
+    <t>#define DEBUG_PRINT</t>
+  </si>
+  <si>
+    <t>#define CAN_MESSAGE_AD_TC_NUM 3</t>
+  </si>
+  <si>
+    <t>#define CAN_MESSAGE_AD_VMC_NUM 2</t>
+  </si>
+  <si>
+    <t>static uint8_t g_FailState[FAIL_STATE_TYPE_NUM] = {0};</t>
+  </si>
+  <si>
+    <t>static const uint8_t m_CanRecvTh = 3;</t>
+  </si>
+  <si>
+    <t>static const uint8_t Can_Rec_State = 0x11;</t>
+  </si>
+  <si>
+    <t>static const uint16_t Power_On_thr = 1000;</t>
+  </si>
+  <si>
+    <t>uint16_t power_On = 1001;</t>
+  </si>
+  <si>
+    <t>void FailSafeCheck()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>MCUType Micon = AD_TC;</t>
+  </si>
+  <si>
+    <t>f_CANFailInfo_set(Micon);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>void f_CANFailInfo_set(MCUType Micon)</t>
+  </si>
+  <si>
+    <t>MCUType_Convert Can_Racv_Info[MCU_TYPE_NUM] = {</t>
+  </si>
+  <si>
+    <t>{AD_SYS1, CAN_RECV_INVALID},</t>
+  </si>
+  <si>
+    <t>{AD_SYS2, CAN_RECV_INVALID},</t>
+  </si>
+  <si>
+    <t>{AD_TC, CAN_RECV_AD_TC},</t>
+  </si>
+  <si>
+    <t>{AD_VMC, CAN_RECV_AD_VMS},</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* CanMessageType AD_TC */</t>
+  </si>
+  <si>
+    <t>CAN_MESSAGE_TYPE Can_Recv_AD_TC_Array[CAN_MESSAGE_AD_TC_NUM] = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>CAN_RECEV1,</t>
+  </si>
+  <si>
+    <t>CAN_RECEV2,</t>
+  </si>
+  <si>
+    <t>CAN_RECEV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* CanMessageType AD_VMC */</t>
+  </si>
+  <si>
+    <t>CAN_MESSAGE_TYPE Can_Recv_AD_VMC_Array[CAN_MESSAGE_AD_VMC_NUM] = {</t>
+  </si>
+  <si>
+    <t>CAN_RECEV5,</t>
+  </si>
+  <si>
+    <t>CAN_RECEV8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* CanMessageType Array */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID_Table Can_Recv_Table[CAN_RECV_MCUTYPE_NUM] = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { CAN_MESSAGE_AD_TC_NUM, Can_Recv_AD_TC_Array },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { CAN_MESSAGE_AD_VMC_NUM, Can_Recv_AD_VMC_Array }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* Error_Result  */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool f_CANRecv_Err_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool f_CANRecv_Err_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool* f_CANRecv_Err[2] = { f_CANRecv_Err_AD_TC, f_CANRecv_Err_AD_VMC };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    f_CANRecv_set(Can_Racv_Info[Micon].CanRecv_Type, Can_Recv_Table, f_CANRecv_Err);</t>
+  </si>
+  <si>
+    <t>void f_CANRecv_set(CanRecv_MCUType Micon,  const ID_Table* const Message_Table, bool* const Error_Result[])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t i = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* Declarations */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* v_CANRecv_Mon */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t v_CANRecv_Mon_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t v_CANRecv_Mon_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t* v_CANRecv_Mon[CAN_RECV_MCUTYPE_NUM] = {v_CANRecv_Mon_AD_TC, v_CANRecv_Mon_AD_VMC};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* l_CANRecvErrCnt */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static uint8_t l_CANRecvErrCnt_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static uint8_t l_CANRecvErrCnt_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uint8_t* l_CANRecvErrCnt[CAN_RECV_MCUTYPE_NUM] = {l_CANRecvErrCnt_AD_TC, l_CANRecvErrCnt_AD_VMC};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* CANRecv_Fail */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static bool CANRecv_Fail_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static bool CANRecv_Fail_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool* CANRecv_Fail[CAN_RECV_MCUTYPE_NUM] = {CANRecv_Fail_AD_TC, CANRecv_Fail_AD_VMC};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i=0 ; i &lt; Message_Table[Micon].size; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t>/* Get API */</t>
+  </si>
+  <si>
+    <t>v_CANRecv_Mon[Micon][i] = Stub_GetCANRecv(Message_Table[Micon].array[i]);</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[GET_API] v_CANRecv_Mon = " &lt;&lt; (int)v_CANRecv_Mon[Micon][i] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>/* API Judgment*/</t>
+  </si>
+  <si>
+    <t>Error_Result[Micon][i] = !(v_CANRecv_Mon[Micon][i] == 0) ? 1 : 0;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[API_JUDGMENT] Error_Result = " &lt;&lt; Error_Result[Micon][i] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /* Prohibition Fail */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(!(CANRecv_Fail[Micon][i] == 0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>// Do Nothing</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[PROHIBITION] CANRecv_Fail = " &lt;&lt; (int)CANRecv_Fail[Micon][i] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /* Prohibition Power_On_thr */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else if(power_On &lt; Power_On_thr)</t>
+  </si>
+  <si>
+    <t>l_CANRecvErrCnt[Micon][i] = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else</t>
+  </si>
+  <si>
+    <t>/* Error Judgment */</t>
+  </si>
+  <si>
+    <t>l_CANRecvErrCnt[Micon][i] = !(Error_Result[Micon][i] == 0) ? l_CANRecvErrCnt[Micon][i] + 1 : 0;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[ERR_JUDGMENT] l_CANRecvErrCnt = " &lt;&lt; (int)l_CANRecvErrCnt[Micon][i] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>/* Fail Judgment */</t>
+  </si>
+  <si>
+    <t>if(l_CANRecvErrCnt[Micon][i] &gt;= m_CanRecvTh)</t>
+  </si>
+  <si>
+    <t>CANRecv_Fail[Micon][i] = 1;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[FAIL_JUDGMENT] CANRecv_Fail = " &lt;&lt; CANRecv_Fail[Micon][i] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>g_FailState[CAN_RECV_STATE] = !(CANRecv_Fail[Micon][i]== 0) ? Can_Rec_State : 0;</t>
+  </si>
+  <si>
+    <t>cout &lt;&lt; "[G_FAILSTATE] g_FailState= " &lt;&lt; (int)g_FailState[CAN_RECV_STATE] &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,8 +1283,50 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,8 +1345,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -808,13 +1532,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +1770,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -937,12 +1865,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF66CCFF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCFFFF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1235,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:Y136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3878,4 +4806,2548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Q65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="5" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="D7" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="E10" s="39">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="E11" s="39">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="E14" s="39">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="E15" s="39">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.25" customHeight="1">
+      <c r="E16" s="39">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="D17" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="E19" s="39">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="D21" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="E23" s="39">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="E24" s="39">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17">
+      <c r="L33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17">
+      <c r="D40" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="43"/>
+    </row>
+    <row r="41" spans="4:17">
+      <c r="D41" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0</v>
+      </c>
+      <c r="L41" s="49">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="4:17">
+      <c r="D42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="51">
+        <v>1</v>
+      </c>
+      <c r="L42" s="51">
+        <v>255</v>
+      </c>
+      <c r="M42" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="54"/>
+    </row>
+    <row r="43" spans="4:17">
+      <c r="D43" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="43"/>
+    </row>
+    <row r="44" spans="4:17">
+      <c r="D44" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="40">
+        <v>0</v>
+      </c>
+      <c r="L44" s="40">
+        <v>0</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="4:17">
+      <c r="D45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="40">
+        <v>1</v>
+      </c>
+      <c r="L45" s="40">
+        <v>1</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="4:17">
+      <c r="D46" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="43"/>
+    </row>
+    <row r="47" spans="4:17">
+      <c r="D47" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="40">
+        <v>0</v>
+      </c>
+      <c r="L47" s="40">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="4:17">
+      <c r="D48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" s="40">
+        <v>1</v>
+      </c>
+      <c r="L48" s="40">
+        <v>1</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="3:17">
+      <c r="D49" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L49" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="43"/>
+    </row>
+    <row r="50" spans="3:17">
+      <c r="D50" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" s="40">
+        <v>0</v>
+      </c>
+      <c r="L50" s="40">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="3:17">
+      <c r="D51" s="17"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" s="40">
+        <v>200</v>
+      </c>
+      <c r="L51" s="40">
+        <v>255</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="3:17">
+      <c r="D52" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L52" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="43"/>
+    </row>
+    <row r="53" spans="3:17">
+      <c r="D53" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" s="40">
+        <v>0</v>
+      </c>
+      <c r="L53" s="40">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="3:17">
+      <c r="D54" s="17"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="3:17">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="57" spans="3:17">
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17">
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17">
+      <c r="D59" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17">
+      <c r="D60" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17">
+      <c r="D61" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17">
+      <c r="D62" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17">
+      <c r="D63" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17">
+      <c r="D64" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E6:H7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="6" spans="5:8">
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8">
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:J138"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="2:10">
+      <c r="B5" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="59"/>
+      <c r="C34" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="59"/>
+      <c r="C39" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="59"/>
+      <c r="C42" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="59"/>
+      <c r="C49" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="59"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="59"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="14"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="59"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="14"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="59"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="59"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="59"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="14"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="59"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="14"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="59"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="14"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="59"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="14"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="14"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="14"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="14"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="14"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E122" s="60"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="14"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="60"/>
+      <c r="D123" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" s="60"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="14"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="14"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="E127" s="60"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="14"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="14"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="59"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="14"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="14"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="60"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="60"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="14"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="17"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/failsafe.xlsx
+++ b/failsafe.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="22575" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Can" sheetId="6" r:id="rId3"/>
-    <sheet name="テストケース" sheetId="7" r:id="rId4"/>
-    <sheet name="ソース" sheetId="8" r:id="rId5"/>
+    <sheet name="Can" sheetId="6" r:id="rId2"/>
+    <sheet name="Can未受信" sheetId="11" r:id="rId3"/>
+    <sheet name="Can未受信ベース" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="281">
   <si>
     <t>static uint8_t Cnt_TC[TC_ID_NUM]</t>
     <phoneticPr fontId="1"/>
@@ -537,13 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>void f_CANClock_set(const ID_Table* const ID_Info, uint8_t Type_Aurix, uint8_t* const Can_Recv_Result);</t>
-  </si>
-  <si>
-    <t>void f_CANFailInfo_set(MCUType Micon)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>引数</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -551,10 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>void f_CANRecv_set(CanRecv_MCUType Micon_Info,  const ID_Table* const Message_Table, bool* const Error_Result[]);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CAN_RECV_AD_TC</t>
   </si>
   <si>
@@ -871,10 +860,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力値</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -901,299 +886,922 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VMC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイコンタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * FailSafeFunc.cpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> */</t>
-  </si>
-  <si>
-    <t>#include "FailSafeFunc.h"</t>
-  </si>
-  <si>
-    <t>using namespace std;</t>
-  </si>
-  <si>
-    <t>#define DEBUG_PRINT</t>
-  </si>
-  <si>
-    <t>#define CAN_MESSAGE_AD_TC_NUM 3</t>
-  </si>
-  <si>
-    <t>#define CAN_MESSAGE_AD_VMC_NUM 2</t>
-  </si>
-  <si>
-    <t>static uint8_t g_FailState[FAIL_STATE_TYPE_NUM] = {0};</t>
-  </si>
-  <si>
-    <t>static const uint8_t m_CanRecvTh = 3;</t>
-  </si>
-  <si>
-    <t>static const uint8_t Can_Rec_State = 0x11;</t>
-  </si>
-  <si>
-    <t>static const uint16_t Power_On_thr = 1000;</t>
-  </si>
-  <si>
-    <t>uint16_t power_On = 1001;</t>
-  </si>
-  <si>
-    <t>void FailSafeCheck()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>MCUType Micon = AD_TC;</t>
-  </si>
-  <si>
-    <t>f_CANFailInfo_set(Micon);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>void f_CANFailInfo_set(MCUType Micon)</t>
-  </si>
-  <si>
-    <t>MCUType_Convert Can_Racv_Info[MCU_TYPE_NUM] = {</t>
-  </si>
-  <si>
-    <t>{AD_SYS1, CAN_RECV_INVALID},</t>
-  </si>
-  <si>
-    <t>{AD_SYS2, CAN_RECV_INVALID},</t>
-  </si>
-  <si>
-    <t>{AD_TC, CAN_RECV_AD_TC},</t>
-  </si>
-  <si>
-    <t>{AD_VMC, CAN_RECV_AD_VMS},</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* CanMessageType AD_TC */</t>
-  </si>
-  <si>
-    <t>CAN_MESSAGE_TYPE Can_Recv_AD_TC_Array[CAN_MESSAGE_AD_TC_NUM] = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>CAN_RECEV1,</t>
-  </si>
-  <si>
-    <t>CAN_RECEV2,</t>
-  </si>
-  <si>
-    <t>CAN_RECEV6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* CanMessageType AD_VMC */</t>
-  </si>
-  <si>
-    <t>CAN_MESSAGE_TYPE Can_Recv_AD_VMC_Array[CAN_MESSAGE_AD_VMC_NUM] = {</t>
-  </si>
-  <si>
-    <t>CAN_RECEV5,</t>
-  </si>
-  <si>
-    <t>CAN_RECEV8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* CanMessageType Array */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ID_Table Can_Recv_Table[CAN_RECV_MCUTYPE_NUM] = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        { CAN_MESSAGE_AD_TC_NUM, Can_Recv_AD_TC_Array },</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        { CAN_MESSAGE_AD_VMC_NUM, Can_Recv_AD_VMC_Array }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* Error_Result  */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bool f_CANRecv_Err_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bool f_CANRecv_Err_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bool* f_CANRecv_Err[2] = { f_CANRecv_Err_AD_TC, f_CANRecv_Err_AD_VMC };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    f_CANRecv_set(Can_Racv_Info[Micon].CanRecv_Type, Can_Recv_Table, f_CANRecv_Err);</t>
-  </si>
-  <si>
-    <t>void f_CANRecv_set(CanRecv_MCUType Micon,  const ID_Table* const Message_Table, bool* const Error_Result[])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uint8_t i = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* Declarations */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* v_CANRecv_Mon */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uint8_t v_CANRecv_Mon_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uint8_t v_CANRecv_Mon_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uint8_t* v_CANRecv_Mon[CAN_RECV_MCUTYPE_NUM] = {v_CANRecv_Mon_AD_TC, v_CANRecv_Mon_AD_VMC};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* l_CANRecvErrCnt */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static uint8_t l_CANRecvErrCnt_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static uint8_t l_CANRecvErrCnt_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uint8_t* l_CANRecvErrCnt[CAN_RECV_MCUTYPE_NUM] = {l_CANRecvErrCnt_AD_TC, l_CANRecvErrCnt_AD_VMC};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    /* CANRecv_Fail */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static bool CANRecv_Fail_AD_TC[CAN_MESSAGE_AD_TC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static bool CANRecv_Fail_AD_VMC[CAN_MESSAGE_AD_VMC_NUM] = {0};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bool* CANRecv_Fail[CAN_RECV_MCUTYPE_NUM] = {CANRecv_Fail_AD_TC, CANRecv_Fail_AD_VMC};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for(i=0 ; i &lt; Message_Table[Micon].size; i++)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {</t>
-  </si>
-  <si>
-    <t>/* Get API */</t>
-  </si>
-  <si>
-    <t>v_CANRecv_Mon[Micon][i] = Stub_GetCANRecv(Message_Table[Micon].array[i]);</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[GET_API] v_CANRecv_Mon = " &lt;&lt; (int)v_CANRecv_Mon[Micon][i] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t>/* API Judgment*/</t>
-  </si>
-  <si>
-    <t>Error_Result[Micon][i] = !(v_CANRecv_Mon[Micon][i] == 0) ? 1 : 0;</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[API_JUDGMENT] Error_Result = " &lt;&lt; Error_Result[Micon][i] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        /* Prohibition Fail */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if(!(CANRecv_Fail[Micon][i] == 0))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t>// Do Nothing</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[PROHIBITION] CANRecv_Fail = " &lt;&lt; (int)CANRecv_Fail[Micon][i] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        /* Prohibition Power_On_thr */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        else if(power_On &lt; Power_On_thr)</t>
-  </si>
-  <si>
-    <t>l_CANRecvErrCnt[Micon][i] = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        else</t>
-  </si>
-  <si>
-    <t>/* Error Judgment */</t>
-  </si>
-  <si>
-    <t>l_CANRecvErrCnt[Micon][i] = !(Error_Result[Micon][i] == 0) ? l_CANRecvErrCnt[Micon][i] + 1 : 0;</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[ERR_JUDGMENT] l_CANRecvErrCnt = " &lt;&lt; (int)l_CANRecvErrCnt[Micon][i] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t>/* Fail Judgment */</t>
-  </si>
-  <si>
-    <t>if(l_CANRecvErrCnt[Micon][i] &gt;= m_CanRecvTh)</t>
-  </si>
-  <si>
-    <t>CANRecv_Fail[Micon][i] = 1;</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[FAIL_JUDGMENT] CANRecv_Fail = " &lt;&lt; CANRecv_Fail[Micon][i] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>g_FailState[CAN_RECV_STATE] = !(CANRecv_Fail[Micon][i]== 0) ? Can_Rec_State : 0;</t>
-  </si>
-  <si>
-    <t>cout &lt;&lt; "[G_FAILSTATE] g_FailState= " &lt;&lt; (int)g_FailState[CAN_RECV_STATE] &lt;&lt; endl;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FailStateに異常データを書き込む</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FailStateに正常データを書き込む</t>
+    <rPh sb="10" eb="12">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>＜禁止判定＞</t>
+  </si>
+  <si>
+    <t>＜フェイル判定＞</t>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も処理をしない</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カバレッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーオンリセット時間未満</t>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. カバレッジの確認</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 変数の確認</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIの戻り値</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIの戻り値：正常</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIの戻り値：異常</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_CANRecv_Mon[] == 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_CANRecv_Mon[] == 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル情報のフラグ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIの戻り値を格納する</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー回数をカウントする</t>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_FailState[Can未受信]</t>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル状態検出済み</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーカウンタがエラー回数の閾値を超える</t>
+    <rPh sb="11" eb="13">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーカウンタがエラー回数の閾値を超えない</t>
+    <rPh sb="11" eb="13">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル情報を格納する</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイルなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイルあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー回数の閾値を超える</t>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> v_CANRecv_Mon[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> f_CANRecv_Err[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> f_CANRecv_Fail[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> l_CANRecvErrCnt[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static uint8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No1.の判定した結果を格納する</t>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ範囲</t>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新値</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイルの判定結果</t>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーカウントの判定結果</t>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル状態の判定結果</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No1.の判定した結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. APIの引数に渡すテーブルの確認</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常値</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閾値</t>
+    <rPh sb="0" eb="2">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜命令文＞</t>
+    <rPh sb="1" eb="4">
+      <t>メイレイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIからエラー結果を取得</t>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー結果を判定</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー回数を判定する</t>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル状態検出済みか</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーオンリセット時間未満か</t>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーカウンタが0か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜判定条件＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜命令文＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー回数が判定値を超えたか</t>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>禁止フラグが有効か</t>
+    <rPh sb="0" eb="2">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイル状態を書き込む</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CANRecvMonがエラーか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIからClockエラー結果を取得</t>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clockエラー結果を判定</t>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClockMsgか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClockTableを生成</t>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIからCANRecvエラー結果を取得</t>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽</t>
+    <rPh sb="0" eb="1">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clockフェイル状態検出済みか</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clockエラー回数を判定する</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clockエラー回数が判定値を超えたか</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clock禁止フラグが有効か</t>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clokcフェイル状態を書き込む</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_CANRecv_set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f_CANRecv_set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの判定条件における真偽が少なくとも1回は実行される</t>
+  </si>
+  <si>
+    <t>分岐網羅(C1)</t>
+    <rPh sb="0" eb="2">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モウラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1201,7 +1809,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,50 +1894,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1932,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1649,13 +2230,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,32 +2565,332 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1865,9 +2900,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFFCCFF"/>
@@ -2164,7 +3199,7 @@
   <dimension ref="B4:Y136"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4810,41 +5845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4855,22 +5859,22 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="D7" s="57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -4881,7 +5885,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="D8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -4889,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="39"/>
     </row>
@@ -4898,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="39"/>
     </row>
@@ -4907,13 +5911,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" s="39"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -4924,7 +5928,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="D13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4932,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="39"/>
     </row>
@@ -4941,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="39"/>
     </row>
@@ -4950,13 +5954,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:12">
       <c r="D17" s="57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="57"/>
       <c r="F17" s="57"/>
@@ -4967,7 +5971,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -4975,13 +5979,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" s="39"/>
     </row>
     <row r="21" spans="2:12">
       <c r="D21" s="57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -4992,7 +5996,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="D22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -5000,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G23" s="39"/>
     </row>
@@ -5009,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -5020,79 +6024,79 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="H28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="H29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="L30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="H31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="L32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="4:17">
       <c r="L33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="4:17">
       <c r="D40" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
       <c r="G40" s="43"/>
       <c r="H40" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I40" s="43"/>
       <c r="J40" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K40" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L40" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="45"/>
@@ -5101,17 +6105,17 @@
     </row>
     <row r="41" spans="4:17">
       <c r="D41" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
       <c r="H41" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K41" s="49">
         <v>0</v>
@@ -5120,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -5135,7 +6139,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
       <c r="J42" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K42" s="51">
         <v>1</v>
@@ -5144,7 +6148,7 @@
         <v>255</v>
       </c>
       <c r="M42" s="52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N42" s="53"/>
       <c r="O42" s="53"/>
@@ -5153,26 +6157,26 @@
     </row>
     <row r="43" spans="4:17">
       <c r="D43" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="43"/>
       <c r="H43" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I43" s="43"/>
       <c r="J43" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K43" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N43" s="45"/>
       <c r="O43" s="45"/>
@@ -5181,17 +6185,17 @@
     </row>
     <row r="44" spans="4:17">
       <c r="D44" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="14"/>
       <c r="H44" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K44" s="40">
         <v>0</v>
@@ -5200,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5215,7 +6219,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="16"/>
       <c r="J45" s="41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K45" s="40">
         <v>1</v>
@@ -5224,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -5233,26 +6237,26 @@
     </row>
     <row r="46" spans="4:17">
       <c r="D46" s="42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
       <c r="G46" s="43"/>
       <c r="H46" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I46" s="43"/>
       <c r="J46" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K46" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L46" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M46" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N46" s="45"/>
       <c r="O46" s="45"/>
@@ -5261,17 +6265,17 @@
     </row>
     <row r="47" spans="4:17">
       <c r="D47" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="14"/>
       <c r="H47" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K47" s="40">
         <v>0</v>
@@ -5280,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5295,7 +6299,7 @@
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
       <c r="J48" s="41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K48" s="40">
         <v>1</v>
@@ -5304,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -5313,26 +6317,26 @@
     </row>
     <row r="49" spans="3:17">
       <c r="D49" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
       <c r="G49" s="43"/>
       <c r="H49" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I49" s="43"/>
       <c r="J49" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L49" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N49" s="45"/>
       <c r="O49" s="45"/>
@@ -5341,17 +6345,17 @@
     </row>
     <row r="50" spans="3:17">
       <c r="D50" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="14"/>
       <c r="H50" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K50" s="40">
         <v>0</v>
@@ -5360,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5375,7 +6379,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="16"/>
       <c r="J51" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K51" s="40">
         <v>200</v>
@@ -5384,7 +6388,7 @@
         <v>255</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5393,26 +6397,26 @@
     </row>
     <row r="52" spans="3:17">
       <c r="D52" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="43"/>
       <c r="H52" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I52" s="43"/>
       <c r="J52" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K52" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L52" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M52" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
@@ -5421,17 +6425,17 @@
     </row>
     <row r="53" spans="3:17">
       <c r="D53" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="14"/>
       <c r="H53" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K53" s="40">
         <v>0</v>
@@ -5455,16 +6459,16 @@
       <c r="H54" s="17"/>
       <c r="I54" s="16"/>
       <c r="J54" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K54" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L54" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M54" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
@@ -5489,47 +6493,47 @@
     </row>
     <row r="57" spans="3:17">
       <c r="C57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="3:17">
       <c r="D58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="3:17">
       <c r="D59" s="56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="3:17">
       <c r="D60" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="3:17">
       <c r="D61" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="3:17">
       <c r="D62" s="55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="3:17">
       <c r="D63" s="55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="3:17">
       <c r="D64" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5538,1814 +6542,3375 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E6:H7"/>
+  <dimension ref="E3:AJ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="6" spans="5:8">
-      <c r="E6" t="s">
+    <row r="3" spans="5:36">
+      <c r="AJ3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="5:36">
+      <c r="E4" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AJ4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="5:36">
+      <c r="F6" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="W6" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="X6" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="5:36">
+      <c r="F7" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+    </row>
+    <row r="8" spans="5:36">
+      <c r="F8" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X8" s="40"/>
+      <c r="AJ8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="5:36">
+      <c r="F9" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X9" s="40"/>
+    </row>
+    <row r="10" spans="5:36">
+      <c r="F10" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="AJ10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="5:36">
+      <c r="F11" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="G6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="5:8">
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X11" s="40"/>
+    </row>
+    <row r="12" spans="5:36">
+      <c r="F12" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X12" s="40"/>
+    </row>
+    <row r="13" spans="5:36">
+      <c r="AJ13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="5:36">
+      <c r="E15" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+    </row>
+    <row r="18" spans="6:25">
+      <c r="F18" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" t="s">
+        <v>181</v>
+      </c>
+      <c r="S18" t="s">
+        <v>191</v>
+      </c>
+      <c r="V18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="6:25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" t="s">
+        <v>183</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="V19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="6:25">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="6:25">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" t="s">
+        <v>185</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
+      <c r="V21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="6:25">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="6:25">
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" t="s">
+        <v>187</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="6:25">
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="6:25">
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" t="s">
+        <v>189</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="6:25">
+      <c r="S26">
+        <v>200</v>
+      </c>
+      <c r="V26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="6:25">
+      <c r="V27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="6:25">
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" t="s">
+        <v>183</v>
+      </c>
+      <c r="V28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="6:25">
+      <c r="V29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="6:25">
+      <c r="F31" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q31" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" s="96"/>
+      <c r="W31" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="X31" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y31" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="6:25">
+      <c r="F32" s="48">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="97">
+        <v>0</v>
+      </c>
+      <c r="R32" s="117"/>
+      <c r="S32" s="97">
+        <v>0</v>
+      </c>
+      <c r="T32" s="117"/>
+      <c r="U32" s="97">
+        <v>0</v>
+      </c>
+      <c r="V32" s="98"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y32" s="40"/>
+    </row>
+    <row r="33" spans="6:25">
+      <c r="F33" s="73"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="99">
+        <v>0</v>
+      </c>
+      <c r="R33" s="113"/>
+      <c r="S33" s="99">
+        <v>1</v>
+      </c>
+      <c r="T33" s="113"/>
+      <c r="U33" s="99">
+        <v>1</v>
+      </c>
+      <c r="V33" s="100"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="40"/>
+    </row>
+    <row r="34" spans="6:25">
+      <c r="F34" s="73"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="99">
+        <v>1</v>
+      </c>
+      <c r="R34" s="113"/>
+      <c r="S34" s="99">
+        <v>0</v>
+      </c>
+      <c r="T34" s="113"/>
+      <c r="U34" s="99">
+        <v>0</v>
+      </c>
+      <c r="V34" s="100"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+    </row>
+    <row r="35" spans="6:25">
+      <c r="F35" s="74"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="103">
+        <v>1</v>
+      </c>
+      <c r="R35" s="115"/>
+      <c r="S35" s="103">
+        <v>1</v>
+      </c>
+      <c r="T35" s="115"/>
+      <c r="U35" s="103">
+        <v>1</v>
+      </c>
+      <c r="V35" s="104"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+    </row>
+    <row r="36" spans="6:25">
+      <c r="F36" s="48">
+        <v>2</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="97">
+        <v>0</v>
+      </c>
+      <c r="R36" s="117"/>
+      <c r="S36" s="97">
+        <v>0</v>
+      </c>
+      <c r="T36" s="117"/>
+      <c r="U36" s="97">
+        <v>0</v>
+      </c>
+      <c r="V36" s="98"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+    </row>
+    <row r="37" spans="6:25">
+      <c r="F37" s="73"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="99">
+        <v>0</v>
+      </c>
+      <c r="R37" s="113"/>
+      <c r="S37" s="99">
+        <v>1</v>
+      </c>
+      <c r="T37" s="113"/>
+      <c r="U37" s="99">
+        <v>1</v>
+      </c>
+      <c r="V37" s="100"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+    </row>
+    <row r="38" spans="6:25">
+      <c r="F38" s="73"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="99">
+        <v>1</v>
+      </c>
+      <c r="R38" s="113"/>
+      <c r="S38" s="99">
+        <v>0</v>
+      </c>
+      <c r="T38" s="113"/>
+      <c r="U38" s="99">
+        <v>0</v>
+      </c>
+      <c r="V38" s="100"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+    </row>
+    <row r="39" spans="6:25">
+      <c r="F39" s="74"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="103">
+        <v>1</v>
+      </c>
+      <c r="R39" s="115"/>
+      <c r="S39" s="103">
+        <v>1</v>
+      </c>
+      <c r="T39" s="115"/>
+      <c r="U39" s="103">
+        <v>1</v>
+      </c>
+      <c r="V39" s="104"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+    </row>
+    <row r="40" spans="6:25">
+      <c r="F40" s="48">
+        <v>3</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="111">
+        <v>0</v>
+      </c>
+      <c r="R40" s="119"/>
+      <c r="S40" s="111">
+        <v>0</v>
+      </c>
+      <c r="T40" s="119"/>
+      <c r="U40" s="111">
+        <v>0</v>
+      </c>
+      <c r="V40" s="112"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+    </row>
+    <row r="41" spans="6:25">
+      <c r="F41" s="73"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="99">
+        <v>0</v>
+      </c>
+      <c r="R41" s="113"/>
+      <c r="S41" s="99">
+        <v>1</v>
+      </c>
+      <c r="T41" s="113"/>
+      <c r="U41" s="99">
+        <v>1</v>
+      </c>
+      <c r="V41" s="100"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+    </row>
+    <row r="42" spans="6:25">
+      <c r="F42" s="73"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="101">
+        <v>1</v>
+      </c>
+      <c r="R42" s="114"/>
+      <c r="S42" s="101">
+        <v>0</v>
+      </c>
+      <c r="T42" s="114"/>
+      <c r="U42" s="101">
+        <v>0</v>
+      </c>
+      <c r="V42" s="102"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+    </row>
+    <row r="43" spans="6:25">
+      <c r="F43" s="74"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="109">
+        <v>1</v>
+      </c>
+      <c r="R43" s="120"/>
+      <c r="S43" s="109">
+        <v>1</v>
+      </c>
+      <c r="T43" s="120"/>
+      <c r="U43" s="109">
+        <v>1</v>
+      </c>
+      <c r="V43" s="110"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+    </row>
+    <row r="44" spans="6:25">
+      <c r="F44" s="48">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>188</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="Q44" s="97">
+        <v>0</v>
+      </c>
+      <c r="R44" s="117"/>
+      <c r="S44" s="97">
+        <v>0</v>
+      </c>
+      <c r="T44" s="117"/>
+      <c r="U44" s="97">
+        <v>0</v>
+      </c>
+      <c r="V44" s="98"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+    </row>
+    <row r="45" spans="6:25">
+      <c r="F45" s="73"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="1"/>
+      <c r="Q45" s="99">
+        <v>0</v>
+      </c>
+      <c r="R45" s="113"/>
+      <c r="S45" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="T45" s="113"/>
+      <c r="U45" s="99">
+        <v>1</v>
+      </c>
+      <c r="V45" s="100"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+    </row>
+    <row r="46" spans="6:25">
+      <c r="F46" s="73"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="1"/>
+      <c r="Q46" s="99">
+        <v>199</v>
+      </c>
+      <c r="R46" s="113"/>
+      <c r="S46" s="99">
+        <v>0</v>
+      </c>
+      <c r="T46" s="113"/>
+      <c r="U46" s="99">
+        <v>0</v>
+      </c>
+      <c r="V46" s="100"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+    </row>
+    <row r="47" spans="6:25">
+      <c r="F47" s="73"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="1"/>
+      <c r="Q47" s="99">
+        <v>199</v>
+      </c>
+      <c r="R47" s="113"/>
+      <c r="S47" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="T47" s="118"/>
+      <c r="U47" s="105">
+        <v>200</v>
+      </c>
+      <c r="V47" s="106"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+    </row>
+    <row r="48" spans="6:25">
+      <c r="F48" s="73"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="1"/>
+      <c r="Q48" s="101">
+        <v>200</v>
+      </c>
+      <c r="R48" s="114"/>
+      <c r="S48" s="101">
+        <v>0</v>
+      </c>
+      <c r="T48" s="114"/>
+      <c r="U48" s="101">
+        <v>200</v>
+      </c>
+      <c r="V48" s="102"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+    </row>
+    <row r="49" spans="5:30">
+      <c r="F49" s="74"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="1"/>
+      <c r="Q49" s="103">
+        <v>200</v>
+      </c>
+      <c r="R49" s="115"/>
+      <c r="S49" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="T49" s="116"/>
+      <c r="U49" s="107">
+        <v>200</v>
+      </c>
+      <c r="V49" s="108"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+    </row>
+    <row r="50" spans="5:30">
+      <c r="F50" s="48">
+        <v>5</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="97">
+        <v>0</v>
+      </c>
+      <c r="R50" s="117"/>
+      <c r="S50" s="97">
+        <v>0</v>
+      </c>
+      <c r="T50" s="117"/>
+      <c r="U50" s="97">
+        <v>0</v>
+      </c>
+      <c r="V50" s="98"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+    </row>
+    <row r="51" spans="5:30">
+      <c r="F51" s="73"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="99">
+        <v>0</v>
+      </c>
+      <c r="R51" s="113"/>
+      <c r="S51" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="T51" s="113"/>
+      <c r="U51" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="V51" s="100"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+    </row>
+    <row r="52" spans="5:30">
+      <c r="F52" s="73"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="R52" s="114"/>
+      <c r="S52" s="101">
+        <v>0</v>
+      </c>
+      <c r="T52" s="114"/>
+      <c r="U52" s="101">
+        <v>0</v>
+      </c>
+      <c r="V52" s="102"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+    </row>
+    <row r="53" spans="5:30">
+      <c r="F53" s="74"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="R53" s="115"/>
+      <c r="S53" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="T53" s="115"/>
+      <c r="U53" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="V53" s="104"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+    </row>
+    <row r="56" spans="5:30">
+      <c r="E56" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+    </row>
+    <row r="58" spans="5:30">
+      <c r="F58" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:J138"/>
+  <dimension ref="B4:AA92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
+    <row r="4" spans="2:26">
+      <c r="B4" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="C6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="C8" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="140"/>
+      <c r="I8" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="62" t="s">
+      <c r="J8" s="66"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="72"/>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="C9" s="121" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
+    </row>
+    <row r="10" spans="2:26">
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="121"/>
+      <c r="I14" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="79"/>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="121"/>
+      <c r="I16" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+    </row>
+    <row r="19" spans="3:19" s="80" customFormat="1">
+      <c r="C19" s="155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="161" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" s="161" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="163" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="145"/>
+      <c r="M19" s="146" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="144"/>
+      <c r="O19" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="R19" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" s="138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="144" t="s">
+        <v>242</v>
+      </c>
+      <c r="M20" s="148"/>
+      <c r="N20" s="144" t="s">
+        <v>243</v>
+      </c>
+      <c r="O20" s="149"/>
+      <c r="P20" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="P23" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="129"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="122"/>
+      <c r="I27" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="72"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="72"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="143" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="121"/>
+      <c r="I29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" s="77"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="62" t="s">
+      <c r="H30" s="121"/>
+      <c r="I30" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="121"/>
+      <c r="I31" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="77"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="121"/>
+      <c r="I32" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" s="77"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="79"/>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="81"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="121"/>
+      <c r="I33" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="M33" s="77"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="79"/>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="C34" s="83"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="121"/>
+      <c r="I34" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="77"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="79"/>
+    </row>
+    <row r="35" spans="3:21">
+      <c r="C35" s="83"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="121"/>
+      <c r="I35" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" s="77"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="79"/>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="C36" s="83"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="121"/>
+      <c r="I36" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" s="77"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="79"/>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37" s="83"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="121"/>
+      <c r="I37" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" s="77"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="70"/>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="C38" s="83"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="121"/>
+      <c r="I38" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" s="77"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="70"/>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="C39" s="85"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" s="121"/>
+      <c r="I39" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="77"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="70"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="165" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="155" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" s="142"/>
+      <c r="J41" s="141" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="R41" s="141"/>
+      <c r="S41" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="59" t="s">
+      <c r="T41" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="59" t="s">
+      <c r="U41" s="138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="C42" s="158"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="141" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="N42" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="P42" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141" t="s">
+        <v>263</v>
+      </c>
+      <c r="S42" s="139"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="138"/>
+    </row>
+    <row r="43" spans="3:21">
+      <c r="C43" s="125"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="I43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="M43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="N43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="O43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="P43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="R43" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="S43" s="60"/>
+      <c r="T43" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="U43" s="40"/>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="M44" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="N44" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="O44" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="P44" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q44" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="R44" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="S44" s="60"/>
+      <c r="T44" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="U44" s="40"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="L45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="N45" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="O45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="P45" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q45" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="S45" s="60"/>
+      <c r="T45" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="U45" s="40"/>
+    </row>
+    <row r="46" spans="3:21">
+      <c r="C46" s="129"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="L46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="M46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="N46" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="P46" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q46" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="R46" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="S46" s="60"/>
+      <c r="T46" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="U46" s="40"/>
+    </row>
+    <row r="49" spans="2:27">
+      <c r="B49" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="59" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+    </row>
+    <row r="52" spans="2:27">
+      <c r="C52" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="59" t="s">
+      <c r="M52" t="s">
+        <v>181</v>
+      </c>
+      <c r="P52" t="s">
+        <v>191</v>
+      </c>
+      <c r="S52" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="59" t="s">
+    </row>
+    <row r="53" spans="2:27">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="M53" t="s">
+        <v>183</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="S54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="M55" t="s">
+        <v>185</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27">
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="M57" t="s">
+        <v>187</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27">
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="M59" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27">
+      <c r="P60">
+        <v>200</v>
+      </c>
+      <c r="S60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27">
+      <c r="S61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27">
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>167</v>
+      </c>
+      <c r="M62" t="s">
+        <v>183</v>
+      </c>
+      <c r="S62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27">
+      <c r="S63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24">
+      <c r="C65" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" t="s">
+        <v>157</v>
+      </c>
+      <c r="P65" t="s">
+        <v>192</v>
+      </c>
+      <c r="R65" t="s">
+        <v>193</v>
+      </c>
+      <c r="T65" t="s">
+        <v>139</v>
+      </c>
+      <c r="V65" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="W65" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="X65" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="3:24">
+      <c r="C66" s="48">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="59"/>
-      <c r="C29" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="59" t="s">
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="O66" s="126"/>
+      <c r="P66" s="135">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="136"/>
+      <c r="R66" s="135">
+        <v>0</v>
+      </c>
+      <c r="S66" s="136"/>
+      <c r="T66" s="135">
+        <v>0</v>
+      </c>
+      <c r="U66" s="137"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="59"/>
-      <c r="C34" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="14"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
+      <c r="X66" s="40"/>
+    </row>
+    <row r="67" spans="3:24">
+      <c r="C67" s="73"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="O67" s="128"/>
+      <c r="P67" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="99">
+        <v>1</v>
+      </c>
+      <c r="S67" s="113"/>
+      <c r="T67" s="99">
+        <v>1</v>
+      </c>
+      <c r="U67" s="131"/>
+      <c r="V67" s="60"/>
+      <c r="W67" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="X67" s="40"/>
+    </row>
+    <row r="68" spans="3:24">
+      <c r="C68" s="73"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="59"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="127" t="s">
+        <v>204</v>
+      </c>
+      <c r="O68" s="128"/>
+      <c r="P68" s="99">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="113"/>
+      <c r="R68" s="99">
+        <v>0</v>
+      </c>
+      <c r="S68" s="113"/>
+      <c r="T68" s="99">
+        <v>0</v>
+      </c>
+      <c r="U68" s="131"/>
+      <c r="V68" s="60"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+    </row>
+    <row r="69" spans="3:24">
+      <c r="C69" s="74"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="O69" s="130"/>
+      <c r="P69" s="132">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="133"/>
+      <c r="R69" s="132">
+        <v>1</v>
+      </c>
+      <c r="S69" s="133"/>
+      <c r="T69" s="132">
+        <v>1</v>
+      </c>
+      <c r="U69" s="134"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+    </row>
+    <row r="70" spans="3:24">
+      <c r="C70" s="48">
+        <v>2</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O70" s="124"/>
+      <c r="P70" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="97">
+        <v>0</v>
+      </c>
+      <c r="S70" s="117"/>
+      <c r="T70" s="97">
+        <v>0</v>
+      </c>
+      <c r="U70" s="98"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+    </row>
+    <row r="71" spans="3:24">
+      <c r="C71" s="73"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="59"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O71" s="124"/>
+      <c r="P71" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="99">
+        <v>1</v>
+      </c>
+      <c r="S71" s="113"/>
+      <c r="T71" s="99">
+        <v>1</v>
+      </c>
+      <c r="U71" s="100"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+    </row>
+    <row r="72" spans="3:24">
+      <c r="C72" s="73"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="14"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="14"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="62" t="s">
+      <c r="I72" s="18"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O72" s="124"/>
+      <c r="P72" s="99">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="113"/>
+      <c r="R72" s="99">
+        <v>0</v>
+      </c>
+      <c r="S72" s="113"/>
+      <c r="T72" s="99">
+        <v>0</v>
+      </c>
+      <c r="U72" s="100"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+    </row>
+    <row r="73" spans="3:24">
+      <c r="C73" s="74"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O73" s="124"/>
+      <c r="P73" s="103">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="115"/>
+      <c r="R73" s="103">
+        <v>1</v>
+      </c>
+      <c r="S73" s="115"/>
+      <c r="T73" s="103">
+        <v>1</v>
+      </c>
+      <c r="U73" s="104"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+    </row>
+    <row r="74" spans="3:24">
+      <c r="C74" s="48">
+        <v>3</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O74" s="124"/>
+      <c r="P74" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="111">
+        <v>0</v>
+      </c>
+      <c r="S74" s="119"/>
+      <c r="T74" s="111">
+        <v>0</v>
+      </c>
+      <c r="U74" s="112"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+    </row>
+    <row r="75" spans="3:24">
+      <c r="C75" s="73"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O75" s="124"/>
+      <c r="P75" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="113"/>
+      <c r="R75" s="99">
+        <v>1</v>
+      </c>
+      <c r="S75" s="113"/>
+      <c r="T75" s="99">
+        <v>1</v>
+      </c>
+      <c r="U75" s="100"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+    </row>
+    <row r="76" spans="3:24">
+      <c r="C76" s="73"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="59" t="s">
+      <c r="I76" s="18"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O76" s="124"/>
+      <c r="P76" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="101">
+        <v>0</v>
+      </c>
+      <c r="S76" s="114"/>
+      <c r="T76" s="101">
+        <v>0</v>
+      </c>
+      <c r="U76" s="102"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+    </row>
+    <row r="77" spans="3:24">
+      <c r="C77" s="74"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O77" s="124"/>
+      <c r="P77" s="109">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="120"/>
+      <c r="R77" s="109">
+        <v>1</v>
+      </c>
+      <c r="S77" s="120"/>
+      <c r="T77" s="109">
+        <v>1</v>
+      </c>
+      <c r="U77" s="110"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+    </row>
+    <row r="78" spans="3:24">
+      <c r="C78" s="48">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O78" s="124"/>
+      <c r="P78" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="117"/>
+      <c r="R78" s="97">
+        <v>0</v>
+      </c>
+      <c r="S78" s="117"/>
+      <c r="T78" s="97">
+        <v>0</v>
+      </c>
+      <c r="U78" s="98"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+    </row>
+    <row r="79" spans="3:24">
+      <c r="C79" s="73"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O79" s="124"/>
+      <c r="P79" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="S79" s="113"/>
+      <c r="T79" s="99">
+        <v>1</v>
+      </c>
+      <c r="U79" s="100"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+    </row>
+    <row r="80" spans="3:24">
+      <c r="C80" s="73"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O80" s="124"/>
+      <c r="P80" s="99">
         <v>199</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="14"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="59" t="s">
+      <c r="Q80" s="113"/>
+      <c r="R80" s="99">
+        <v>0</v>
+      </c>
+      <c r="S80" s="113"/>
+      <c r="T80" s="99">
+        <v>0</v>
+      </c>
+      <c r="U80" s="100"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+    </row>
+    <row r="81" spans="2:27">
+      <c r="C81" s="73"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O81" s="124"/>
+      <c r="P81" s="99">
+        <v>199</v>
+      </c>
+      <c r="Q81" s="113"/>
+      <c r="R81" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="S81" s="118"/>
+      <c r="T81" s="105">
         <v>200</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="59" t="s">
+      <c r="U81" s="106"/>
+      <c r="V81" s="60"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+    </row>
+    <row r="82" spans="2:27">
+      <c r="C82" s="73"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O82" s="124"/>
+      <c r="P82" s="101">
+        <v>200</v>
+      </c>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="101">
+        <v>0</v>
+      </c>
+      <c r="S82" s="114"/>
+      <c r="T82" s="101">
+        <v>200</v>
+      </c>
+      <c r="U82" s="102"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+    </row>
+    <row r="83" spans="2:27">
+      <c r="C83" s="74"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O83" s="124"/>
+      <c r="P83" s="103">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="115"/>
+      <c r="R83" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="S83" s="116"/>
+      <c r="T83" s="107">
+        <v>200</v>
+      </c>
+      <c r="U83" s="108"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+    </row>
+    <row r="84" spans="2:27">
+      <c r="C84" s="48">
+        <v>5</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="59"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="14"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
+      <c r="O84" s="124"/>
+      <c r="P84" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="117"/>
+      <c r="R84" s="97">
+        <v>0</v>
+      </c>
+      <c r="S84" s="117"/>
+      <c r="T84" s="97">
+        <v>0</v>
+      </c>
+      <c r="U84" s="98"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+    </row>
+    <row r="85" spans="2:27">
+      <c r="C85" s="73"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="14"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="O85" s="124"/>
+      <c r="P85" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="113"/>
+      <c r="R85" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="S85" s="113"/>
+      <c r="T85" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="U85" s="100"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+    </row>
+    <row r="86" spans="2:27">
+      <c r="C86" s="73"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="14"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="14"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="14"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="59"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="59"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="14"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" s="60"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="14"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" s="60"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C120" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="14"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="E122" s="60"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C123" s="60"/>
-      <c r="D123" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="E123" s="60"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="14"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="14"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C125" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C126" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="E127" s="60"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="14"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C128" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="14"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="14"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="59"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="14"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="14"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C134" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C135" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="14"/>
-    </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="14"/>
-    </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="14"/>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="17"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O86" s="124"/>
+      <c r="P86" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="101">
+        <v>0</v>
+      </c>
+      <c r="S86" s="114"/>
+      <c r="T86" s="101">
+        <v>0</v>
+      </c>
+      <c r="U86" s="102"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+    </row>
+    <row r="87" spans="2:27">
+      <c r="C87" s="74"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="O87" s="124"/>
+      <c r="P87" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87" s="115"/>
+      <c r="R87" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="S87" s="115"/>
+      <c r="T87" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="U87" s="104"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+    </row>
+    <row r="90" spans="2:27">
+      <c r="B90" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="61"/>
+      <c r="Y90" s="61"/>
+      <c r="Z90" s="61"/>
+      <c r="AA90" s="61"/>
+    </row>
+    <row r="92" spans="2:27">
+      <c r="C92" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="124">
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C21:F25"/>
+    <mergeCell ref="C43:F46"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="C9:F17"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
